--- a/output/fit_clients/fit_round_426.xlsx
+++ b/output/fit_clients/fit_round_426.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2463708457.519738</v>
+        <v>2318121957.884106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1142584359801775</v>
+        <v>0.1111185183924031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04405164400334626</v>
+        <v>0.04530552076169374</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1231854286.743526</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2610617319.389428</v>
+        <v>2328019587.005561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1135359724672642</v>
+        <v>0.1818873403993507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03771154021623942</v>
+        <v>0.03131667796070149</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1305308794.335145</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3690522575.939439</v>
+        <v>4555955674.220364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1082280063489001</v>
+        <v>0.118393181075892</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03236187618353547</v>
+        <v>0.0238549689076652</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>154</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1845261280.236382</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4061877308.893673</v>
+        <v>2884317526.074125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09589179748050697</v>
+        <v>0.106751526055499</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03879900708000657</v>
+        <v>0.03774544399990001</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>157</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2030938654.085568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2876752524.207444</v>
+        <v>2302744661.403345</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1199782828591084</v>
+        <v>0.1243708136267144</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0480147021200322</v>
+        <v>0.03827350068350956</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1438376196.830557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3067318082.679945</v>
+        <v>1929693022.656244</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09712287860740386</v>
+        <v>0.08476597393553167</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03226792320652961</v>
+        <v>0.04868904536510309</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>134</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1533658999.755132</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3270146664.203969</v>
+        <v>2757118797.831007</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1373042359506127</v>
+        <v>0.1840312570281293</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02066054628353675</v>
+        <v>0.02722452720087134</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1635073417.249496</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2255145169.816985</v>
+        <v>1755583589.768895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1352131538895792</v>
+        <v>0.1335933171687948</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02711351841208683</v>
+        <v>0.02642917869860846</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1127572576.131639</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3603657821.055742</v>
+        <v>5028154304.211879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2099670864450374</v>
+        <v>0.1554859753264179</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04209503681285259</v>
+        <v>0.04600849730741517</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>179</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1801828901.745846</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2708117404.549783</v>
+        <v>2986213477.663937</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1633594525737775</v>
+        <v>0.1184308018159413</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03429756935686542</v>
+        <v>0.04369231494557864</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>176</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1354058624.867124</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3099822843.083799</v>
+        <v>3247599355.445019</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1795733416791037</v>
+        <v>0.1553792458434698</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04164049819404972</v>
+        <v>0.03367832862745897</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>145</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1549911448.728459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4671326678.301336</v>
+        <v>5236511804.799955</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07882332728631179</v>
+        <v>0.06824303209231448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02786956469940862</v>
+        <v>0.0244319321047497</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>143</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2335663359.999031</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2556957380.487657</v>
+        <v>2825164354.810294</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1616242465770604</v>
+        <v>0.1796786044466265</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03052022310888054</v>
+        <v>0.02760383255306024</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1278478756.779903</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1734933180.000411</v>
+        <v>1692656415.279158</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09181317329394481</v>
+        <v>0.06695017867684593</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03553574585500253</v>
+        <v>0.03916397949534038</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>867466728.7853315</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2570972377.217458</v>
+        <v>2709641206.836719</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08625493001362923</v>
+        <v>0.09357363758331515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04132294144164118</v>
+        <v>0.03745904365049587</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1285486213.104544</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4770980258.813511</v>
+        <v>5110688383.202137</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1330944022329551</v>
+        <v>0.1368728843606196</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04011998524907234</v>
+        <v>0.03938994574028451</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2385490125.934868</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3965161899.533077</v>
+        <v>3088337070.476136</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1304755215344148</v>
+        <v>0.1351259852253905</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03260020678482868</v>
+        <v>0.0330985443056501</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>139</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1982580910.119266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1026872331.917733</v>
+        <v>1286042654.059253</v>
       </c>
       <c r="F19" t="n">
-        <v>0.133582288068707</v>
+        <v>0.1810026425810233</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01870826208560249</v>
+        <v>0.02121509099449562</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>513436201.7336039</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2153027737.275968</v>
+        <v>2023120615.139203</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1400494318389256</v>
+        <v>0.1339224936689906</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02751274210666879</v>
+        <v>0.01919403094985699</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>58</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1076513878.685308</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1698213194.0459</v>
+        <v>2113036370.718634</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07415858517471016</v>
+        <v>0.07904632511036652</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03834461911053911</v>
+        <v>0.03591182064656986</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>849106661.8752489</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3514673486.568745</v>
+        <v>2796691728.349257</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09308313633114033</v>
+        <v>0.1021397845301857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05516672463554469</v>
+        <v>0.03973139881125943</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1757336774.009824</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1124835874.207866</v>
+        <v>1244215653.871142</v>
       </c>
       <c r="F23" t="n">
-        <v>0.138368909621267</v>
+        <v>0.1273283397107303</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04099402638360423</v>
+        <v>0.05018840664896369</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>562417986.2612603</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3183973221.231951</v>
+        <v>2897754070.169723</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1337065353988665</v>
+        <v>0.1152902005434025</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02408717391317688</v>
+        <v>0.03615627601396716</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>124</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1591986633.497945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1402448308.097648</v>
+        <v>1145147647.154703</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09601533853880403</v>
+        <v>0.1082029754224363</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02352637131660045</v>
+        <v>0.02990024100678355</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>701224125.461697</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>938514556.3860071</v>
+        <v>1003788287.186124</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09479056212936841</v>
+        <v>0.08844356879246679</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03743411826634033</v>
+        <v>0.03435830658663567</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>469257235.2512766</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4607716226.613898</v>
+        <v>3033926639.842199</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1122696452648767</v>
+        <v>0.1316501052153284</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02239329635179883</v>
+        <v>0.01818917944338191</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2303858093.276864</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3666694235.668393</v>
+        <v>3585822056.218116</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1338870007900161</v>
+        <v>0.1069893108537179</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03971144636829235</v>
+        <v>0.03706241351043725</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1833347186.952602</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5487212333.770967</v>
+        <v>5213963338.451159</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1138436078714091</v>
+        <v>0.1421784370584935</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04026658315376895</v>
+        <v>0.04160877863879771</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>188</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2743606080.709664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2099987081.309086</v>
+        <v>1829441313.880018</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1340655922047374</v>
+        <v>0.1117487277024478</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03663643842776101</v>
+        <v>0.03597592852769945</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1049993589.493926</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1479550354.176796</v>
+        <v>1234658376.44851</v>
       </c>
       <c r="F31" t="n">
-        <v>0.104573715360588</v>
+        <v>0.09917728696761904</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04473659447386864</v>
+        <v>0.03538454567947473</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>739775062.7611761</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1737439384.082851</v>
+        <v>1432105312.506547</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07549599281623989</v>
+        <v>0.09367653609926897</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03373724382023523</v>
+        <v>0.03434410830448879</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>868719809.5842432</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2607532466.710913</v>
+        <v>2731118591.245167</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1574053860829611</v>
+        <v>0.1783504617082696</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06116741223660561</v>
+        <v>0.03866134166341001</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>129</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1303766262.414021</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1129777702.014857</v>
+        <v>1348273616.243688</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1018811268716174</v>
+        <v>0.07977402501548846</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02532630269098647</v>
+        <v>0.0172155383651191</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>564888867.5766373</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1004743280.379673</v>
+        <v>981255343.6203594</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1117417197849092</v>
+        <v>0.1170920298027796</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03463528170001245</v>
+        <v>0.03825567197389626</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>502371657.7381797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3078004312.431824</v>
+        <v>3006880607.057518</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1712474931577084</v>
+        <v>0.1488746103111914</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02460162562829693</v>
+        <v>0.01781867974704968</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1539002131.907148</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1822406918.147546</v>
+        <v>2894991377.793298</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1013029261905518</v>
+        <v>0.09045705979358827</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02919087886972747</v>
+        <v>0.03770898335588368</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>115</v>
-      </c>
-      <c r="J37" t="n">
-        <v>911203461.9292645</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1876443191.654445</v>
+        <v>1922507764.177213</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09245291813593474</v>
+        <v>0.1189078353923465</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03347777397584202</v>
+        <v>0.03694913562497178</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>938221591.9221722</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1726690498.727924</v>
+        <v>1570669448.396923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.143229829078173</v>
+        <v>0.1177664057392239</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02603465064653805</v>
+        <v>0.02427475405028965</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>863345285.4114785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1212524491.671965</v>
+        <v>1466358193.686401</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1254624392985461</v>
+        <v>0.1555491906625737</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05855503476273501</v>
+        <v>0.05158413239512795</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>606262283.9957012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2933803902.402016</v>
+        <v>1918723863.719982</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1314381212214698</v>
+        <v>0.1279510865892531</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03999253060673137</v>
+        <v>0.03092714301660872</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1466901934.031802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3861893517.68328</v>
+        <v>3333165055.577113</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09789349507996599</v>
+        <v>0.1110889614830885</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03766259808677089</v>
+        <v>0.04158808770653652</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1930946778.611646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2626895187.46471</v>
+        <v>2274956291.690338</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1948443631424799</v>
+        <v>0.1616755200640118</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01627397089064007</v>
+        <v>0.0236032706369889</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>148</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1313447629.660288</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1531700820.46644</v>
+        <v>1765963826.954589</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06502617149264052</v>
+        <v>0.08075925964531179</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03591607273837304</v>
+        <v>0.03561578127076198</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>765850423.1439911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1756785143.676964</v>
+        <v>2444687461.094572</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1333001605138847</v>
+        <v>0.1451899650376755</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04703941738709889</v>
+        <v>0.0446494432898413</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>878392538.2500529</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3654450722.733735</v>
+        <v>4125472151.135844</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1178408871538582</v>
+        <v>0.1094262116297009</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05327424168301985</v>
+        <v>0.05816400800711848</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>151</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1827225311.141253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4282365704.960593</v>
+        <v>4111376023.365644</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2014717237170347</v>
+        <v>0.1927498464894775</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04129208693999962</v>
+        <v>0.05093599038383141</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2141182867.641409</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4658733700.385098</v>
+        <v>4361317050.977581</v>
       </c>
       <c r="F48" t="n">
-        <v>0.108777856851815</v>
+        <v>0.1081470314167526</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03381232876874456</v>
+        <v>0.03917377813788228</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2329366846.269709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1310423550.23882</v>
+        <v>1669133698.129357</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1236263344362024</v>
+        <v>0.1886045764119125</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03064160505762327</v>
+        <v>0.04001038818178496</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>655211836.6421582</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3145041917.456314</v>
+        <v>2829594377.604867</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1574644914418465</v>
+        <v>0.1146984183010861</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05063624508221404</v>
+        <v>0.04129771777874405</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>146</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1572521008.243107</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1437840914.081433</v>
+        <v>976376131.4337702</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1568073662869837</v>
+        <v>0.155702365101565</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03286904727831069</v>
+        <v>0.03951783754164837</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>718920470.0629233</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4241005241.645298</v>
+        <v>4673301635.280724</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1038287645342025</v>
+        <v>0.08909145267063077</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05104901681075263</v>
+        <v>0.04358088867943187</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>175</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2120502663.135013</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3480891147.747953</v>
+        <v>2877907187.02987</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1362719465139469</v>
+        <v>0.158753238243373</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03270560908126598</v>
+        <v>0.03023691594673967</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>122</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1740445573.121247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3988618704.055326</v>
+        <v>4579625191.355948</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1407925040492658</v>
+        <v>0.1115023320564407</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05260817876591158</v>
+        <v>0.04268342955135563</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1994309415.235363</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3920371532.833574</v>
+        <v>3126052243.140926</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1525201347025525</v>
+        <v>0.1824546916989828</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02306485981351794</v>
+        <v>0.03070416831531765</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1960185737.809041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1449944205.464701</v>
+        <v>1511735592.200306</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1650236965388201</v>
+        <v>0.1394837733974154</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05163654113797873</v>
+        <v>0.05731119242785769</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>724972152.4218956</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4101560138.449974</v>
+        <v>3026672308.612241</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1682374996013666</v>
+        <v>0.1667893658853267</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01892741524773069</v>
+        <v>0.02475467383739324</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>135</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2050780166.136391</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1515519357.951067</v>
+        <v>1732157837.65846</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2010157817553423</v>
+        <v>0.1414349438666978</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02416345538028037</v>
+        <v>0.03472539471957466</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>757759708.7240747</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5027785226.476797</v>
+        <v>3926824059.931807</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09296458998609639</v>
+        <v>0.09817539279026023</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03983329355956183</v>
+        <v>0.03447079568817061</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2513892539.61136</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3700312164.355845</v>
+        <v>2280150602.114176</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1322029926963176</v>
+        <v>0.2054039399127691</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02717997281968001</v>
+        <v>0.03351096905675643</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>133</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1850156226.005103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2808893852.607594</v>
+        <v>3254774386.694335</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1472983886947882</v>
+        <v>0.1449644952568346</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02596510652272178</v>
+        <v>0.02937907277501872</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>146</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1404446924.811504</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1509941301.664499</v>
+        <v>1964523950.869756</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1171062169454404</v>
+        <v>0.1880123585148637</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04359885558347137</v>
+        <v>0.03741247337173142</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>754970635.4096345</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3693705528.279384</v>
+        <v>4348774645.91517</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08690756198094059</v>
+        <v>0.08162155796202608</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03827818408052515</v>
+        <v>0.04268809005133094</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1846852840.189617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5438919355.132748</v>
+        <v>5429032868.044537</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228931964602261</v>
+        <v>0.182797788258936</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03072762089875117</v>
+        <v>0.02268384096675079</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>132</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2719459814.645538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4005359154.389182</v>
+        <v>5294346554.912709</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1221621838983652</v>
+        <v>0.151292062895282</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02353430595890049</v>
+        <v>0.02096186471430082</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>153</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2002679595.484803</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4134403978.088463</v>
+        <v>4676794603.144406</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1151966243954372</v>
+        <v>0.1016944320690957</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04047623795802967</v>
+        <v>0.04050244513811372</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>124</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2067201969.817139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2553197699.711218</v>
+        <v>2922997790.008651</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06339022914548965</v>
+        <v>0.07241052769728186</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04399821399737872</v>
+        <v>0.05034811701925329</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>136</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1276598905.934644</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4646942751.289758</v>
+        <v>4457493426.426909</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1548010752060975</v>
+        <v>0.09935466032221683</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05133320406755869</v>
+        <v>0.03854767195980142</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2323471410.655187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1910537673.128693</v>
+        <v>1704631255.681113</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1459641833571121</v>
+        <v>0.1564305600991217</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0534451372295555</v>
+        <v>0.05678323625166648</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>955268829.9478998</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3058522647.717098</v>
+        <v>3060457396.872815</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09189770522211937</v>
+        <v>0.09057555881054116</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03929488153514402</v>
+        <v>0.04817916559159955</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1529261304.683988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4352203593.012069</v>
+        <v>5365910962.58725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1216947879819426</v>
+        <v>0.1198755787987028</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02928655648224962</v>
+        <v>0.02498443075427103</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>155</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2176101853.852703</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1442731354.071408</v>
+        <v>2225684083.934207</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09447764008903718</v>
+        <v>0.09204443756811446</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03930480604525904</v>
+        <v>0.0479547609124275</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>721365713.282163</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2671011192.742617</v>
+        <v>2474426732.942067</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09050105165591564</v>
+        <v>0.07468119074443975</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03289477370788596</v>
+        <v>0.04184077561380073</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>161</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1335505622.481725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2907528444.050347</v>
+        <v>2528015695.634622</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1803487187780707</v>
+        <v>0.1632025888797898</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03516336353403581</v>
+        <v>0.03332395777602409</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>145</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1453764295.449115</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1600655412.682894</v>
+        <v>1763306100.509088</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1332799519401137</v>
+        <v>0.1181175760135451</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03343060173727429</v>
+        <v>0.02891082990143191</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>800327707.9481572</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4312524158.267111</v>
+        <v>4552730264.47684</v>
       </c>
       <c r="F76" t="n">
-        <v>0.095821461170218</v>
+        <v>0.08488975568345246</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03308282909314014</v>
+        <v>0.02738931034982326</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>101</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2156262076.986343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1808863762.562127</v>
+        <v>2162157795.988397</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1196694865366878</v>
+        <v>0.1769629351574958</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0281220398924374</v>
+        <v>0.02855098072225627</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>904431914.5914932</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4445252908.918054</v>
+        <v>4229805097.584026</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1311610603678734</v>
+        <v>0.08974272459436625</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03687342056166431</v>
+        <v>0.03963451454481191</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>148</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2222626388.345489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1365788672.043438</v>
+        <v>1822532496.04744</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1592669162422991</v>
+        <v>0.1570951534536364</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0326816681182682</v>
+        <v>0.03075178385443629</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>682894346.7813728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5047463216.48399</v>
+        <v>5306840662.554237</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08635326437336413</v>
+        <v>0.09069430865404206</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03836219111346278</v>
+        <v>0.03150617362698323</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2523731659.813901</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4161902897.103678</v>
+        <v>4761443511.607295</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0877102332596349</v>
+        <v>0.121840169147852</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02385216463649351</v>
+        <v>0.0233497202796651</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2080951417.789195</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4465912457.256779</v>
+        <v>3810180070.635696</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2016830484706904</v>
+        <v>0.1767285476699036</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02504304027408724</v>
+        <v>0.0289744992929963</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>149</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2232956242.408558</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1886574287.216642</v>
+        <v>2412524366.88659</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1516912281099771</v>
+        <v>0.1265043360456277</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04154114895852287</v>
+        <v>0.04239374147409657</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>943287114.8379853</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2150688150.290726</v>
+        <v>1991908171.141246</v>
       </c>
       <c r="F84" t="n">
-        <v>0.087676066376786</v>
+        <v>0.09138255653569725</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03225650924708364</v>
+        <v>0.03659443465382669</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1075344058.10843</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3365325384.109602</v>
+        <v>2760519056.455783</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1415382779592536</v>
+        <v>0.1112668802095533</v>
       </c>
       <c r="G85" t="n">
-        <v>0.042688432847985</v>
+        <v>0.03588032767998699</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>160</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1682662792.543011</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2031594170.084385</v>
+        <v>1845577837.524469</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1184111993372958</v>
+        <v>0.1554266845834342</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02504351506091424</v>
+        <v>0.01703601283684716</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1015797117.086505</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1313692468.881005</v>
+        <v>1028154442.237942</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1525284470507646</v>
+        <v>0.1200509603955149</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03962376709669287</v>
+        <v>0.03976210730920163</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>656846319.1722097</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3101669338.103171</v>
+        <v>3422651178.0844</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1587325536881002</v>
+        <v>0.1207734046567833</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04011434815754584</v>
+        <v>0.02444942968477248</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>169</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1550834709.558099</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2797359281.278138</v>
+        <v>2787019517.301333</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1204675750021326</v>
+        <v>0.1036372771855969</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04136278907615171</v>
+        <v>0.03386931387117838</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>142</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1398679693.634425</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1361530527.534251</v>
+        <v>1358797758.839238</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09175890394767461</v>
+        <v>0.08879001641099901</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04716926976531342</v>
+        <v>0.04914350443825343</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>680765217.202577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1907879577.96267</v>
+        <v>1429427008.392223</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1219802349440724</v>
+        <v>0.1405843548062307</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0425453411238708</v>
+        <v>0.04832916772617415</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>953939773.5360668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2190946999.560869</v>
+        <v>2576575774.880545</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1071056880677385</v>
+        <v>0.09561037193005044</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0308287770713264</v>
+        <v>0.03583747445495664</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1095473460.389606</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4978243507.619486</v>
+        <v>3337263732.957315</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09665177165248184</v>
+        <v>0.0927072634272222</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04380056562940421</v>
+        <v>0.0516844118816012</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2489121691.168145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1611941676.323462</v>
+        <v>1870559558.800333</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1237710996660172</v>
+        <v>0.1283261560873314</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03037199476282544</v>
+        <v>0.03027218883792034</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>805970786.0791312</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2669403673.867337</v>
+        <v>2804954262.484127</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1156364542680579</v>
+        <v>0.1044417054413625</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04720441268761243</v>
+        <v>0.03899686983048746</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1334701860.704905</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2245930211.776012</v>
+        <v>1479568179.523522</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1186205591513615</v>
+        <v>0.1362487887543974</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04417819370136725</v>
+        <v>0.04731402849375606</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1122965066.621195</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3380799322.679486</v>
+        <v>5223728518.748126</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1743331051728569</v>
+        <v>0.1715961895980864</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02859310142969568</v>
+        <v>0.02049992598190743</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1690399667.931142</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3255492792.931606</v>
+        <v>3344620948.466438</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09174336066622621</v>
+        <v>0.09340068517939573</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02871940208962306</v>
+        <v>0.03276569124509787</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>112</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1627746398.494962</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3022602168.911119</v>
+        <v>2201516512.066947</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235990764347012</v>
+        <v>0.121466967904487</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03351784750945114</v>
+        <v>0.02186188269303193</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1511301072.044907</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4082219129.359996</v>
+        <v>3397064731.1183</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1224859748149528</v>
+        <v>0.1655381117996634</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02502536487663079</v>
+        <v>0.01696441938858708</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2041109641.939911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2638597057.756825</v>
+        <v>2725426468.793194</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1733340875950727</v>
+        <v>0.1886843447858417</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05224025876211245</v>
+        <v>0.04726631128834594</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>173</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1319298570.233289</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_426.xlsx
+++ b/output/fit_clients/fit_round_426.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2318121957.884106</v>
+        <v>2454161995.733433</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1111185183924031</v>
+        <v>0.08784280057901141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04530552076169374</v>
+        <v>0.03992001389927552</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2328019587.005561</v>
+        <v>2523945855.426351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1818873403993507</v>
+        <v>0.1621546710507098</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03131667796070149</v>
+        <v>0.03480284664632547</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4555955674.220364</v>
+        <v>4556071461.662214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.118393181075892</v>
+        <v>0.1545398296334969</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0238549689076652</v>
+        <v>0.03027982728552976</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2884317526.074125</v>
+        <v>3943099040.270335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106751526055499</v>
+        <v>0.06826291036654633</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03774544399990001</v>
+        <v>0.03326591240650581</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2302744661.403345</v>
+        <v>2734990566.586234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1243708136267144</v>
+        <v>0.1158569635396693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03827350068350956</v>
+        <v>0.04305766532993188</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1929693022.656244</v>
+        <v>2944704036.591965</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08476597393553167</v>
+        <v>0.09797078691211775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04868904536510309</v>
+        <v>0.04388947427363966</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2757118797.831007</v>
+        <v>2723229875.9395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1840312570281293</v>
+        <v>0.1368401148577044</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02722452720087134</v>
+        <v>0.02043045463348171</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1755583589.768895</v>
+        <v>1908286845.307229</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1335933171687948</v>
+        <v>0.1893504029496037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02642917869860846</v>
+        <v>0.02612908035490732</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5028154304.211879</v>
+        <v>4589388631.955166</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1554859753264179</v>
+        <v>0.1983889305463779</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04600849730741517</v>
+        <v>0.0529977739382658</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2986213477.663937</v>
+        <v>4246576236.488937</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1184308018159413</v>
+        <v>0.1486260209446097</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04369231494557864</v>
+        <v>0.03017274364087524</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3247599355.445019</v>
+        <v>2505981382.085545</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1553792458434698</v>
+        <v>0.1259908796633951</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03367832862745897</v>
+        <v>0.04200565683871928</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5236511804.799955</v>
+        <v>3770286491.3578</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06824303209231448</v>
+        <v>0.07845925757874038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0244319321047497</v>
+        <v>0.02527282421754912</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2825164354.810294</v>
+        <v>3690893731.161373</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1796786044466265</v>
+        <v>0.168138341043625</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02760383255306024</v>
+        <v>0.03333639842724409</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1692656415.279158</v>
+        <v>1339377425.061607</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06695017867684593</v>
+        <v>0.08881041586388311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03916397949534038</v>
+        <v>0.04372436643681567</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2709641206.836719</v>
+        <v>2904029321.6862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09357363758331515</v>
+        <v>0.11377283804437</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03745904365049587</v>
+        <v>0.04177648702726598</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5110688383.202137</v>
+        <v>3671903619.012359</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1368728843606196</v>
+        <v>0.1076772535671242</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03938994574028451</v>
+        <v>0.04478611272466791</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3088337070.476136</v>
+        <v>2997413415.14284</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1351259852253905</v>
+        <v>0.1194972117795092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0330985443056501</v>
+        <v>0.03073940231905502</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1286042654.059253</v>
+        <v>1351273520.168056</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1810026425810233</v>
+        <v>0.1491943753673571</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02121509099449562</v>
+        <v>0.02197066877901382</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2023120615.139203</v>
+        <v>1914252440.901052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1339224936689906</v>
+        <v>0.1119321107891424</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01919403094985699</v>
+        <v>0.02186423465430054</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2113036370.718634</v>
+        <v>2178840102.930354</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07904632511036652</v>
+        <v>0.09489958277841089</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03591182064656986</v>
+        <v>0.02970599758543038</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2796691728.349257</v>
+        <v>3045620948.639702</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1021397845301857</v>
+        <v>0.103316900250827</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03973139881125943</v>
+        <v>0.04386171669007539</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1244215653.871142</v>
+        <v>1048543844.090208</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1273283397107303</v>
+        <v>0.1764583080061507</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05018840664896369</v>
+        <v>0.03930073790032802</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2897754070.169723</v>
+        <v>2590885544.69488</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1152902005434025</v>
+        <v>0.1388105650800345</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03615627601396716</v>
+        <v>0.02984441567443747</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1145147647.154703</v>
+        <v>1130401078.750781</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1082029754224363</v>
+        <v>0.1197811951674173</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02990024100678355</v>
+        <v>0.02210401626203797</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1003788287.186124</v>
+        <v>1136332205.836742</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08844356879246679</v>
+        <v>0.122810164577546</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03435830658663567</v>
+        <v>0.02948801613629592</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3033926639.842199</v>
+        <v>4521119736.481759</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1316501052153284</v>
+        <v>0.1170139971761168</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01818917944338191</v>
+        <v>0.01880098232712468</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3585822056.218116</v>
+        <v>3088937795.091398</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1069893108537179</v>
+        <v>0.1125820149907037</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03706241351043725</v>
+        <v>0.0366517709999466</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5213963338.451159</v>
+        <v>4244278282.728881</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1421784370584935</v>
+        <v>0.1163025530346699</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04160877863879771</v>
+        <v>0.03146805749331523</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1829441313.880018</v>
+        <v>2248193233.178973</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1117487277024478</v>
+        <v>0.1320371121401373</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03597592852769945</v>
+        <v>0.0263289419513479</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1234658376.44851</v>
+        <v>1126632345.619169</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09917728696761904</v>
+        <v>0.09955206662605073</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03538454567947473</v>
+        <v>0.03290195714404898</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1432105312.506547</v>
+        <v>1813309576.350676</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09367653609926897</v>
+        <v>0.08748931015085666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03434410830448879</v>
+        <v>0.0387132080503769</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2731118591.245167</v>
+        <v>2170426625.68861</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1783504617082696</v>
+        <v>0.147125024310239</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03866134166341001</v>
+        <v>0.06042871351676374</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1348273616.243688</v>
+        <v>1012534742.341446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07977402501548846</v>
+        <v>0.1214452234321206</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0172155383651191</v>
+        <v>0.02677159353187906</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>981255343.6203594</v>
+        <v>823561444.4156455</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1170920298027796</v>
+        <v>0.0798881403458039</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03825567197389626</v>
+        <v>0.03167129564660245</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3006880607.057518</v>
+        <v>3027643483.602743</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1488746103111914</v>
+        <v>0.1597912295568442</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01781867974704968</v>
+        <v>0.01960512802550832</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2894991377.793298</v>
+        <v>2516371045.697965</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09045705979358827</v>
+        <v>0.1017378335388349</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03770898335588368</v>
+        <v>0.04084557167000432</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1922507764.177213</v>
+        <v>1737026439.159694</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1189078353923465</v>
+        <v>0.08853569119700246</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03694913562497178</v>
+        <v>0.02984184765714443</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1570669448.396923</v>
+        <v>1650784699.679145</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1177664057392239</v>
+        <v>0.1205110197813321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02427475405028965</v>
+        <v>0.03033016990165936</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1466358193.686401</v>
+        <v>1672475645.857457</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1555491906625737</v>
+        <v>0.1316538992422508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05158413239512795</v>
+        <v>0.05546468822764924</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1918723863.719982</v>
+        <v>1942814552.525759</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1279510865892531</v>
+        <v>0.1349368512759491</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03092714301660872</v>
+        <v>0.04196763083315184</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3333165055.577113</v>
+        <v>4129223471.941411</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1110889614830885</v>
+        <v>0.08018491009586606</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04158808770653652</v>
+        <v>0.03056172765813046</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2274956291.690338</v>
+        <v>2092635683.382311</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1616755200640118</v>
+        <v>0.1456969140808422</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0236032706369889</v>
+        <v>0.0209944106385666</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1765963826.954589</v>
+        <v>2259501284.281212</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08075925964531179</v>
+        <v>0.07401473725269497</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03561578127076198</v>
+        <v>0.02792089192226765</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2444687461.094572</v>
+        <v>1648213069.014185</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1451899650376755</v>
+        <v>0.1502454057809129</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0446494432898413</v>
+        <v>0.05408927057518988</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4125472151.135844</v>
+        <v>3813287534.70123</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1094262116297009</v>
+        <v>0.160402337435646</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05816400800711848</v>
+        <v>0.04039717793898174</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4111376023.365644</v>
+        <v>4202595268.036746</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1927498464894775</v>
+        <v>0.1431271439848621</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05093599038383141</v>
+        <v>0.04264189472455356</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4361317050.977581</v>
+        <v>3822187662.828602</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1081470314167526</v>
+        <v>0.1070109253213353</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03917377813788228</v>
+        <v>0.03925276621679592</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1669133698.129357</v>
+        <v>1955618305.976208</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1886045764119125</v>
+        <v>0.1581550248308111</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04001038818178496</v>
+        <v>0.04319643350067843</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2829594377.604867</v>
+        <v>3090075545.336278</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1146984183010861</v>
+        <v>0.1475142697670545</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04129771777874405</v>
+        <v>0.05341850851365559</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>976376131.4337702</v>
+        <v>1467471134.263561</v>
       </c>
       <c r="F51" t="n">
-        <v>0.155702365101565</v>
+        <v>0.1361832715409487</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03951783754164837</v>
+        <v>0.03595705694872812</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4673301635.280724</v>
+        <v>3426257599.17851</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08909145267063077</v>
+        <v>0.100006598384411</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04358088867943187</v>
+        <v>0.04992835885056012</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2877907187.02987</v>
+        <v>2347343463.29924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.158753238243373</v>
+        <v>0.1799817528969942</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03023691594673967</v>
+        <v>0.03208968792646703</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4579625191.355948</v>
+        <v>4529819480.07683</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1115023320564407</v>
+        <v>0.1494292625423161</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04268342955135563</v>
+        <v>0.05012636014725153</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3126052243.140926</v>
+        <v>4542687527.952642</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1824546916989828</v>
+        <v>0.1350767660702051</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03070416831531765</v>
+        <v>0.0261550150005223</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1511735592.200306</v>
+        <v>1521079071.222015</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1394837733974154</v>
+        <v>0.1123218940041073</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05731119242785769</v>
+        <v>0.04053545156306877</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3026672308.612241</v>
+        <v>2812725552.328683</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1667893658853267</v>
+        <v>0.1235974047185808</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02475467383739324</v>
+        <v>0.02215617158830203</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1732157837.65846</v>
+        <v>1448879339.274688</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1414349438666978</v>
+        <v>0.1592710217407753</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03472539471957466</v>
+        <v>0.03062334373105875</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3926824059.931807</v>
+        <v>4897823739.719226</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09817539279026023</v>
+        <v>0.08450296964505621</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03447079568817061</v>
+        <v>0.04187154332345095</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2280150602.114176</v>
+        <v>3110927894.577137</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2054039399127691</v>
+        <v>0.1740021710033367</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03351096905675643</v>
+        <v>0.02092834525217123</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3254774386.694335</v>
+        <v>3222911264.332332</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1449644952568346</v>
+        <v>0.1212676532193903</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02937907277501872</v>
+        <v>0.02687101934212347</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1964523950.869756</v>
+        <v>1702480116.089271</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1880123585148637</v>
+        <v>0.190237160495826</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03741247337173142</v>
+        <v>0.03208881794067897</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4348774645.91517</v>
+        <v>4107906074.709386</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08162155796202608</v>
+        <v>0.06575697124008752</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04268809005133094</v>
+        <v>0.04491275320830869</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5429032868.044537</v>
+        <v>4831732802.560801</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182797788258936</v>
+        <v>0.1806084203007449</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02268384096675079</v>
+        <v>0.03356548688451405</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5294346554.912709</v>
+        <v>4056857730.227214</v>
       </c>
       <c r="F65" t="n">
-        <v>0.151292062895282</v>
+        <v>0.1320345167031471</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02096186471430082</v>
+        <v>0.02362171572783949</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4676794603.144406</v>
+        <v>3802335141.643141</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1016944320690957</v>
+        <v>0.1368002473546415</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04050244513811372</v>
+        <v>0.03955717975708054</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2922997790.008651</v>
+        <v>3105175610.399772</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07241052769728186</v>
+        <v>0.09850242651847406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05034811701925329</v>
+        <v>0.04175118234549143</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4457493426.426909</v>
+        <v>3677757662.593029</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09935466032221683</v>
+        <v>0.1140830883138423</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03854767195980142</v>
+        <v>0.04558226785351077</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1704631255.681113</v>
+        <v>2192857342.384942</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1564305600991217</v>
+        <v>0.1551231341596584</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05678323625166648</v>
+        <v>0.0395812352781311</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3060457396.872815</v>
+        <v>2827144878.005626</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09057555881054116</v>
+        <v>0.07265511468939151</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04817916559159955</v>
+        <v>0.04058233769832637</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5365910962.58725</v>
+        <v>4075587541.108599</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1198755787987028</v>
+        <v>0.1235375752074491</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02498443075427103</v>
+        <v>0.02941401235926351</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2225684083.934207</v>
+        <v>1587350696.251165</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09204443756811446</v>
+        <v>0.09695792367365434</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0479547609124275</v>
+        <v>0.03480310350391099</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2474426732.942067</v>
+        <v>2761155199.261085</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07468119074443975</v>
+        <v>0.1116922816720843</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04184077561380073</v>
+        <v>0.05133355293207707</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2528015695.634622</v>
+        <v>3056751310.145638</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1632025888797898</v>
+        <v>0.1345786861763563</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03332395777602409</v>
+        <v>0.02425371473908363</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1763306100.509088</v>
+        <v>2354640546.263253</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1181175760135451</v>
+        <v>0.1122513939010674</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02891082990143191</v>
+        <v>0.02964438309733598</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4552730264.47684</v>
+        <v>5029557505.013504</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08488975568345246</v>
+        <v>0.0985995560204911</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02738931034982326</v>
+        <v>0.03393118562208089</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2162157795.988397</v>
+        <v>1976455103.311933</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1769629351574958</v>
+        <v>0.113212272282815</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02855098072225627</v>
+        <v>0.02063573689519252</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4229805097.584026</v>
+        <v>3657426944.902784</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08974272459436625</v>
+        <v>0.1255389887388972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03963451454481191</v>
+        <v>0.04456489052896465</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1822532496.04744</v>
+        <v>1433628832.309086</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1570951534536364</v>
+        <v>0.1263807590918056</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03075178385443629</v>
+        <v>0.03454128354651367</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5306840662.554237</v>
+        <v>5613394271.440829</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09069430865404206</v>
+        <v>0.08492007840726576</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03150617362698323</v>
+        <v>0.03647087186493613</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4761443511.607295</v>
+        <v>4164090358.943307</v>
       </c>
       <c r="F81" t="n">
-        <v>0.121840169147852</v>
+        <v>0.1083889392654688</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0233497202796651</v>
+        <v>0.03008511172593292</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3810180070.635696</v>
+        <v>4166520182.540609</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1767285476699036</v>
+        <v>0.1979538789133516</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0289744992929963</v>
+        <v>0.02147102595359758</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2412524366.88659</v>
+        <v>2466269879.276948</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1265043360456277</v>
+        <v>0.1125667396384841</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04239374147409657</v>
+        <v>0.02966455239150847</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1991908171.141246</v>
+        <v>2049360272.73333</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09138255653569725</v>
+        <v>0.08342291766116533</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03659443465382669</v>
+        <v>0.03340047393611192</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2760519056.455783</v>
+        <v>2303965046.382415</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1112668802095533</v>
+        <v>0.1750234700911412</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03588032767998699</v>
+        <v>0.03933220618882983</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1845577837.524469</v>
+        <v>1811419304.026202</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1554266845834342</v>
+        <v>0.150733031105994</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01703601283684716</v>
+        <v>0.02609726513905865</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028154442.237942</v>
+        <v>1179134763.518039</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1200509603955149</v>
+        <v>0.1492330962868078</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03976210730920163</v>
+        <v>0.0299363464116889</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3422651178.0844</v>
+        <v>3673377165.763159</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1207734046567833</v>
+        <v>0.1615746118027265</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02444942968477248</v>
+        <v>0.03887941698726994</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2787019517.301333</v>
+        <v>2490089613.022279</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1036372771855969</v>
+        <v>0.1149840616285375</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03386931387117838</v>
+        <v>0.03711072608962673</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1358797758.839238</v>
+        <v>1567580249.481761</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08879001641099901</v>
+        <v>0.1236278535556708</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04914350443825343</v>
+        <v>0.04993518304706281</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1429427008.392223</v>
+        <v>1791188268.693327</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1405843548062307</v>
+        <v>0.1648938251306494</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04832916772617415</v>
+        <v>0.04297538825668758</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2576575774.880545</v>
+        <v>2372233540.829815</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09561037193005044</v>
+        <v>0.07692892887554477</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03583747445495664</v>
+        <v>0.04446072873791788</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3337263732.957315</v>
+        <v>4276716698.373765</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0927072634272222</v>
+        <v>0.0864603370164775</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0516844118816012</v>
+        <v>0.04202112442068115</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1870559558.800333</v>
+        <v>2391037588.677853</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1283261560873314</v>
+        <v>0.168269759879682</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03027218883792034</v>
+        <v>0.03960012889570207</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2804954262.484127</v>
+        <v>2174413673.556005</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1044417054413625</v>
+        <v>0.1140689783884222</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03899686983048746</v>
+        <v>0.03929488139332215</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1479568179.523522</v>
+        <v>2070006466.754442</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1362487887543974</v>
+        <v>0.1326729610297446</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04731402849375606</v>
+        <v>0.03635350874277184</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5223728518.748126</v>
+        <v>4064276818.595471</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1715961895980864</v>
+        <v>0.1475236323962913</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02049992598190743</v>
+        <v>0.0231469233408317</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3344620948.466438</v>
+        <v>3862459650.483269</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09340068517939573</v>
+        <v>0.09692985581954809</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03276569124509787</v>
+        <v>0.023774850773027</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2201516512.066947</v>
+        <v>2959701431.106554</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121466967904487</v>
+        <v>0.09997160019207234</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02186188269303193</v>
+        <v>0.02890459730689223</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3397064731.1183</v>
+        <v>3712474886.724973</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1655381117996634</v>
+        <v>0.142083627419835</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01696441938858708</v>
+        <v>0.02181958974156873</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2725426468.793194</v>
+        <v>2322380300.534666</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1886843447858417</v>
+        <v>0.1660920338138972</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04726631128834594</v>
+        <v>0.04007797173739145</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_426.xlsx
+++ b/output/fit_clients/fit_round_426.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2454161995.733433</v>
+        <v>1816262435.014302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08784280057901141</v>
+        <v>0.08518022722994514</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03992001389927552</v>
+        <v>0.04175433350867673</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2523945855.426351</v>
+        <v>2025313502.287187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1621546710507098</v>
+        <v>0.1424063692053753</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03480284664632547</v>
+        <v>0.03838141519536253</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4556071461.662214</v>
+        <v>4184826183.11828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1545398296334969</v>
+        <v>0.1153742616868713</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03027982728552976</v>
+        <v>0.03266106733428984</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>216</v>
+      </c>
+      <c r="J4" t="n">
+        <v>426</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3943099040.270335</v>
+        <v>3541881364.946084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06826291036654633</v>
+        <v>0.08309860434023807</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03326591240650581</v>
+        <v>0.03559327540439516</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>174</v>
+      </c>
+      <c r="J5" t="n">
+        <v>426</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2734990566.586234</v>
+        <v>2441973292.571794</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1158569635396693</v>
+        <v>0.1142046043931111</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04305766532993188</v>
+        <v>0.03802494150955014</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2944704036.591965</v>
+        <v>2552119397.380241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09797078691211775</v>
+        <v>0.07693388154324268</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04388947427363966</v>
+        <v>0.03759061033841734</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2723229875.9395</v>
+        <v>3124974561.145426</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1368401148577044</v>
+        <v>0.204449920371672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02043045463348171</v>
+        <v>0.03282326302750908</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>422</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1908286845.307229</v>
+        <v>1719054874.844235</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1893504029496037</v>
+        <v>0.1210416579842363</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02612908035490732</v>
+        <v>0.03105180699682077</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4589388631.955166</v>
+        <v>5067367454.218915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1983889305463779</v>
+        <v>0.1776991537524172</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0529977739382658</v>
+        <v>0.04224512488460769</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>338</v>
+      </c>
+      <c r="J10" t="n">
+        <v>425</v>
+      </c>
+      <c r="K10" t="n">
+        <v>37.96464864373607</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4246576236.488937</v>
+        <v>2577183964.157925</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1486260209446097</v>
+        <v>0.1488569629346911</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03017274364087524</v>
+        <v>0.03048752923539503</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2505981382.085545</v>
+        <v>2288609308.536655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1259908796633951</v>
+        <v>0.1580984481525288</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04200565683871928</v>
+        <v>0.04087843322790517</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3770286491.3578</v>
+        <v>3942424195.189224</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07845925757874038</v>
+        <v>0.0821917570861692</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02527282421754912</v>
+        <v>0.02442345774931723</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>223</v>
+      </c>
+      <c r="J13" t="n">
+        <v>425</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38.35040337512103</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3690893731.161373</v>
+        <v>3910651503.532737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.168138341043625</v>
+        <v>0.161868738033848</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03333639842724409</v>
+        <v>0.02912489586554288</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>91</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="n">
+        <v>59.16092652765928</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1339377425.061607</v>
+        <v>1477865439.493151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08881041586388311</v>
+        <v>0.1080138811318445</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04372436643681567</v>
+        <v>0.04705012404418445</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2904029321.6862</v>
+        <v>2589082069.734622</v>
       </c>
       <c r="F16" t="n">
-        <v>0.11377283804437</v>
+        <v>0.08023746217966157</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04177648702726598</v>
+        <v>0.04399157745544479</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3671903619.012359</v>
+        <v>5254777170.477077</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1076772535671242</v>
+        <v>0.1201480343769855</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04478611272466791</v>
+        <v>0.03516259009376251</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>207</v>
+      </c>
+      <c r="J17" t="n">
+        <v>425</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40.53858562340805</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2997413415.14284</v>
+        <v>3242967236.525957</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1194972117795092</v>
+        <v>0.1329377544942674</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03073940231905502</v>
+        <v>0.03449157648860933</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>110</v>
+      </c>
+      <c r="J18" t="n">
+        <v>424</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1351273520.168056</v>
+        <v>1219284210.375772</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1491943753673571</v>
+        <v>0.1484821234188726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02197066877901382</v>
+        <v>0.02066332280533873</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1914252440.901052</v>
+        <v>2719000206.317723</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1119321107891424</v>
+        <v>0.1081492272584674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02186423465430054</v>
+        <v>0.02344953639626523</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2178840102.930354</v>
+        <v>2175022633.283446</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09489958277841089</v>
+        <v>0.081803996124638</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02970599758543038</v>
+        <v>0.02911771455453223</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3045620948.639702</v>
+        <v>3928804953.728948</v>
       </c>
       <c r="F22" t="n">
-        <v>0.103316900250827</v>
+        <v>0.1412270837930035</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04386171669007539</v>
+        <v>0.05600761090354713</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>120</v>
+      </c>
+      <c r="J22" t="n">
+        <v>426</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1048543844.090208</v>
+        <v>1454144805.944467</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1764583080061507</v>
+        <v>0.1342734167125834</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03930073790032802</v>
+        <v>0.03423198295389681</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2590885544.69488</v>
+        <v>3154152254.214722</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1388105650800345</v>
+        <v>0.1015114851652924</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02984441567443747</v>
+        <v>0.03458772022524523</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>135</v>
+      </c>
+      <c r="J24" t="n">
+        <v>425</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.39407204434242</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1130401078.750781</v>
+        <v>1211764153.371799</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1197811951674173</v>
+        <v>0.08183292417433259</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02210401626203797</v>
+        <v>0.02205427670130108</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1136332205.836742</v>
+        <v>896328084.9173011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.122810164577546</v>
+        <v>0.09883262508075837</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02948801613629592</v>
+        <v>0.03579174823918872</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4521119736.481759</v>
+        <v>4675413418.712803</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1170139971761168</v>
+        <v>0.1062332767384637</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01880098232712468</v>
+        <v>0.02212850203382434</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>182</v>
+      </c>
+      <c r="J27" t="n">
+        <v>426</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.6245661645253</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3088937795.091398</v>
+        <v>3134387099.704936</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1125820149907037</v>
+        <v>0.1238967802767779</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0366517709999466</v>
+        <v>0.03816274466396798</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4244278282.728881</v>
+        <v>4624210601.761108</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1163025530346699</v>
+        <v>0.1445573085035259</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03146805749331523</v>
+        <v>0.04427186380997796</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>354</v>
+      </c>
+      <c r="J29" t="n">
+        <v>425</v>
+      </c>
+      <c r="K29" t="n">
+        <v>36.88993535702888</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2248193233.178973</v>
+        <v>1652131795.79436</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1320371121401373</v>
+        <v>0.1160662486323883</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0263289419513479</v>
+        <v>0.03850417898144071</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1126632345.619169</v>
+        <v>990132305.1623163</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09955206662605073</v>
+        <v>0.1053809303206943</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03290195714404898</v>
+        <v>0.04998405668537118</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1813309576.350676</v>
+        <v>1145375905.418418</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08748931015085666</v>
+        <v>0.1083476213715532</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0387132080503769</v>
+        <v>0.02457998263543523</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2170426625.68861</v>
+        <v>3045126354.354191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.147125024310239</v>
+        <v>0.1688952715856416</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06042871351676374</v>
+        <v>0.04149224694510733</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1012534742.341446</v>
+        <v>1319215415.540979</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214452234321206</v>
+        <v>0.09397892568883363</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02677159353187906</v>
+        <v>0.02245003742942877</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>823561444.4156455</v>
+        <v>1353616488.113123</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0798881403458039</v>
+        <v>0.07860786937576332</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03167129564660245</v>
+        <v>0.03341783817554446</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3027643483.602743</v>
+        <v>2784077451.649341</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1597912295568442</v>
+        <v>0.1097196786232092</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01960512802550832</v>
+        <v>0.02823991884036431</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2516371045.697965</v>
+        <v>2594464348.227844</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1017378335388349</v>
+        <v>0.08483538644943789</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04084557167000432</v>
+        <v>0.03263990511820186</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1737026439.159694</v>
+        <v>1386175347.104455</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08853569119700246</v>
+        <v>0.07488958157053585</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02984184765714443</v>
+        <v>0.0329507973118533</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1650784699.679145</v>
+        <v>1678003807.318383</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1205110197813321</v>
+        <v>0.1321081560268729</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03033016990165936</v>
+        <v>0.02778750863622213</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1672475645.857457</v>
+        <v>1571233609.65897</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1316538992422508</v>
+        <v>0.1000996770749865</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05546468822764924</v>
+        <v>0.04868622796399701</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1942814552.525759</v>
+        <v>2169384863.052162</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1349368512759491</v>
+        <v>0.142441569117926</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04196763083315184</v>
+        <v>0.03322997115665532</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4129223471.941411</v>
+        <v>3083281957.452684</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08018491009586606</v>
+        <v>0.106016009157061</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03056172765813046</v>
+        <v>0.04436857751836551</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>182</v>
+      </c>
+      <c r="J42" t="n">
+        <v>424</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2092635683.382311</v>
+        <v>2971827631.571691</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1456969140808422</v>
+        <v>0.1864608553814599</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0209944106385666</v>
+        <v>0.02582880522409698</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2259501284.281212</v>
+        <v>2057687549.056469</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07401473725269497</v>
+        <v>0.08822332939297861</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02792089192226765</v>
+        <v>0.03625262274229355</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1648213069.014185</v>
+        <v>1893703832.421917</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1502454057809129</v>
+        <v>0.1722563103447155</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05408927057518988</v>
+        <v>0.04512032089306033</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3813287534.70123</v>
+        <v>3876387414.198683</v>
       </c>
       <c r="F46" t="n">
-        <v>0.160402337435646</v>
+        <v>0.1592293321943135</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04039717793898174</v>
+        <v>0.03903885277785923</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>254</v>
+      </c>
+      <c r="J46" t="n">
+        <v>426</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4202595268.036746</v>
+        <v>4799033448.418191</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1431271439848621</v>
+        <v>0.1236641853043382</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04264189472455356</v>
+        <v>0.05820262402730163</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>190</v>
+      </c>
+      <c r="J47" t="n">
+        <v>426</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3822187662.828602</v>
+        <v>3997466804.093254</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1070109253213353</v>
+        <v>0.09230770643773015</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03925276621679592</v>
+        <v>0.02595588144809759</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>218</v>
+      </c>
+      <c r="J48" t="n">
+        <v>426</v>
+      </c>
+      <c r="K48" t="n">
+        <v>41.91872075319601</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1955618305.976208</v>
+        <v>1328285801.594749</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1581550248308111</v>
+        <v>0.1183480586306716</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04319643350067843</v>
+        <v>0.0400077320567168</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3090075545.336278</v>
+        <v>3683066051.904306</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1475142697670545</v>
+        <v>0.1189961637264845</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05341850851365559</v>
+        <v>0.03935348094247355</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>147</v>
+      </c>
+      <c r="J50" t="n">
+        <v>426</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.70916377767928</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1467471134.263561</v>
+        <v>1443646388.336126</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1361832715409487</v>
+        <v>0.1702779984299221</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03595705694872812</v>
+        <v>0.04851638290541531</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3426257599.17851</v>
+        <v>4774941470.492991</v>
       </c>
       <c r="F52" t="n">
-        <v>0.100006598384411</v>
+        <v>0.1005097655355738</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04992835885056012</v>
+        <v>0.04030864542517079</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>245</v>
+      </c>
+      <c r="J52" t="n">
+        <v>425</v>
+      </c>
+      <c r="K52" t="n">
+        <v>39.85170881462576</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2347343463.29924</v>
+        <v>3416534974.506664</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1799817528969942</v>
+        <v>0.1596096838573332</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03208968792646703</v>
+        <v>0.02218502915323667</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4529819480.07683</v>
+        <v>3892428450.128896</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1494292625423161</v>
+        <v>0.1115585442996101</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05012636014725153</v>
+        <v>0.03445439634176022</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>228</v>
+      </c>
+      <c r="J54" t="n">
+        <v>425</v>
+      </c>
+      <c r="K54" t="n">
+        <v>36.85721912749</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2378,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4542687527.952642</v>
+        <v>3339455343.272739</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1350767660702051</v>
+        <v>0.1669526486414137</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0261550150005223</v>
+        <v>0.0207105953536253</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>211</v>
+      </c>
+      <c r="J55" t="n">
+        <v>425</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29.1128664770696</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1521079071.222015</v>
+        <v>1361877910.575806</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1123218940041073</v>
+        <v>0.1174810128763034</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04053545156306877</v>
+        <v>0.05533325537112091</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2812725552.328683</v>
+        <v>4568977991.253834</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1235974047185808</v>
+        <v>0.115577330586447</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02215617158830203</v>
+        <v>0.02085395192116895</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>185</v>
+      </c>
+      <c r="J57" t="n">
+        <v>426</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1448879339.274688</v>
+        <v>1268153873.647755</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1592710217407753</v>
+        <v>0.1319856912945845</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03062334373105875</v>
+        <v>0.03675750586222628</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4897823739.719226</v>
+        <v>5310185749.234451</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08450296964505621</v>
+        <v>0.1231479136704458</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04187154332345095</v>
+        <v>0.04901826672364588</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>208</v>
+      </c>
+      <c r="J59" t="n">
+        <v>426</v>
+      </c>
+      <c r="K59" t="n">
+        <v>43.33504848938649</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3110927894.577137</v>
+        <v>3016544760.363037</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1740021710033367</v>
+        <v>0.1744080978233506</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02092834525217123</v>
+        <v>0.02428976682534541</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3222911264.332332</v>
+        <v>3188100104.017331</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1212676532193903</v>
+        <v>0.152414185126542</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02687101934212347</v>
+        <v>0.0271791093666986</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1702480116.089271</v>
+        <v>2000322835.471767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.190237160495826</v>
+        <v>0.1236769857377981</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03208881794067897</v>
+        <v>0.03447229324965632</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4107906074.709386</v>
+        <v>4521727756.970083</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06575697124008752</v>
+        <v>0.1078150390092511</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04491275320830869</v>
+        <v>0.04621584472680408</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>212</v>
+      </c>
+      <c r="J63" t="n">
+        <v>426</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4831732802.560801</v>
+        <v>5392997577.626147</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1806084203007449</v>
+        <v>0.1417549218241504</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03356548688451405</v>
+        <v>0.03195600482929464</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>213</v>
+      </c>
+      <c r="J64" t="n">
+        <v>426</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4056857730.227214</v>
+        <v>4063147998.295235</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1320345167031471</v>
+        <v>0.1555458404833452</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02362171572783949</v>
+        <v>0.02974345633090129</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>310</v>
+      </c>
+      <c r="J65" t="n">
+        <v>426</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3802335141.643141</v>
+        <v>4434017177.896791</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1368002473546415</v>
+        <v>0.1194530291419002</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03955717975708054</v>
+        <v>0.03460488262492297</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>210</v>
+      </c>
+      <c r="J66" t="n">
+        <v>425</v>
+      </c>
+      <c r="K66" t="n">
+        <v>38.36625487854663</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3105175610.399772</v>
+        <v>2440644788.506182</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09850242651847406</v>
+        <v>0.07745218678190957</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04175118234549143</v>
+        <v>0.05107230814668176</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3677757662.593029</v>
+        <v>4465630750.249122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1140830883138423</v>
+        <v>0.1096901014085057</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04558226785351077</v>
+        <v>0.04146562688755354</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>232</v>
+      </c>
+      <c r="J68" t="n">
+        <v>426</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2192857342.384942</v>
+        <v>2390779549.923536</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1551231341596584</v>
+        <v>0.1183198564480375</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0395812352781311</v>
+        <v>0.05773792611648451</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2827144878.005626</v>
+        <v>2918296530.165745</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07265511468939151</v>
+        <v>0.0707388078378608</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04058233769832637</v>
+        <v>0.04841391929022489</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4075587541.108599</v>
+        <v>4434946801.339141</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1235375752074491</v>
+        <v>0.1294860855828337</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02941401235926351</v>
+        <v>0.03134976206604984</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>297</v>
+      </c>
+      <c r="J71" t="n">
+        <v>425</v>
+      </c>
+      <c r="K71" t="n">
+        <v>39.59523691976488</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1587350696.251165</v>
+        <v>2024320042.046344</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09695792367365434</v>
+        <v>0.07039334107456124</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03480310350391099</v>
+        <v>0.04521522622830099</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2761155199.261085</v>
+        <v>3422681129.590842</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1116922816720843</v>
+        <v>0.08266958701366534</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05133355293207707</v>
+        <v>0.04037526992813444</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3056751310.145638</v>
+        <v>3187110300.382026</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1345786861763563</v>
+        <v>0.1809861422421717</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02425371473908363</v>
+        <v>0.02204066925834227</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>123</v>
+      </c>
+      <c r="J74" t="n">
+        <v>425</v>
+      </c>
+      <c r="K74" t="n">
+        <v>34.16989048310207</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2354640546.263253</v>
+        <v>1937179050.378497</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1122513939010674</v>
+        <v>0.1394802953702045</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02964438309733598</v>
+        <v>0.0308722790103985</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5029557505.013504</v>
+        <v>3843496220.423244</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0985995560204911</v>
+        <v>0.08495942636698113</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03393118562208089</v>
+        <v>0.02561505337249938</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>202</v>
+      </c>
+      <c r="J76" t="n">
+        <v>426</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1976455103.311933</v>
+        <v>2080676552.901314</v>
       </c>
       <c r="F77" t="n">
-        <v>0.113212272282815</v>
+        <v>0.1344428998495206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02063573689519252</v>
+        <v>0.0267419237074216</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3657426944.902784</v>
+        <v>3649647062.469733</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1255389887388972</v>
+        <v>0.1033115167820329</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04456489052896465</v>
+        <v>0.04914573417311421</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>213</v>
+      </c>
+      <c r="J78" t="n">
+        <v>426</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1433628832.309086</v>
+        <v>1757388830.965123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1263807590918056</v>
+        <v>0.1409706464353111</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03454128354651367</v>
+        <v>0.03419668852147461</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5613394271.440829</v>
+        <v>4923763750.385018</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08492007840726576</v>
+        <v>0.08524779116521206</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03647087186493613</v>
+        <v>0.0289948257795455</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>207</v>
+      </c>
+      <c r="J80" t="n">
+        <v>426</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4164090358.943307</v>
+        <v>3564418930.242058</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1083889392654688</v>
+        <v>0.1069771270365179</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03008511172593292</v>
+        <v>0.03136639732292319</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>198</v>
+      </c>
+      <c r="J81" t="n">
+        <v>425</v>
+      </c>
+      <c r="K81" t="n">
+        <v>31.83820962419433</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4166520182.540609</v>
+        <v>4386520058.558083</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1979538789133516</v>
+        <v>0.1794587114727371</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02147102595359758</v>
+        <v>0.0233542308074063</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>289</v>
+      </c>
+      <c r="J82" t="n">
+        <v>425</v>
+      </c>
+      <c r="K82" t="n">
+        <v>38.97606461540799</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2466269879.276948</v>
+        <v>1986599492.361457</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1125667396384841</v>
+        <v>0.1503874398599584</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02966455239150847</v>
+        <v>0.03914201779052667</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2049360272.73333</v>
+        <v>2463478901.996435</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08342291766116533</v>
+        <v>0.07684797701924723</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03340047393611192</v>
+        <v>0.04442269052890601</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2303965046.382415</v>
+        <v>3089571270.034889</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1750234700911412</v>
+        <v>0.1293722856521576</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03933220618882983</v>
+        <v>0.0354472431406388</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1811419304.026202</v>
+        <v>2221408055.043139</v>
       </c>
       <c r="F86" t="n">
-        <v>0.150733031105994</v>
+        <v>0.1600945821663765</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02609726513905865</v>
+        <v>0.01890524737398254</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1179134763.518039</v>
+        <v>1502037625.445669</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1492330962868078</v>
+        <v>0.1242802206830037</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0299363464116889</v>
+        <v>0.03332117402828937</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3673377165.763159</v>
+        <v>3346408947.565446</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1615746118027265</v>
+        <v>0.1359380291439298</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03887941698726994</v>
+        <v>0.03806841343594048</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2490089613.022279</v>
+        <v>2418822584.459866</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1149840616285375</v>
+        <v>0.1468868425502297</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03711072608962673</v>
+        <v>0.03338718424188613</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1567580249.481761</v>
+        <v>1916136619.884177</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1236278535556708</v>
+        <v>0.09777188923087425</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04993518304706281</v>
+        <v>0.03439530286748638</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1791188268.693327</v>
+        <v>1334815897.883083</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1648938251306494</v>
+        <v>0.1939865323333593</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04297538825668758</v>
+        <v>0.04143935273714051</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2372233540.829815</v>
+        <v>2109129704.550795</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07692892887554477</v>
+        <v>0.1000250106878005</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04446072873791788</v>
+        <v>0.03272068618499718</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4276716698.373765</v>
+        <v>3389865807.817755</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0864603370164775</v>
+        <v>0.0928821382518675</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04202112442068115</v>
+        <v>0.05427675793060304</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>205</v>
+      </c>
+      <c r="J93" t="n">
+        <v>424</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2391037588.677853</v>
+        <v>2252624072.427547</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168269759879682</v>
+        <v>0.1322653783503585</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03960012889570207</v>
+        <v>0.03797192860563546</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2174413673.556005</v>
+        <v>3113055531.612987</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1140689783884222</v>
+        <v>0.1379359699626534</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03929488139332215</v>
+        <v>0.04714183694435329</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2070006466.754442</v>
+        <v>1533189524.270978</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1326729610297446</v>
+        <v>0.09024633660765709</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03635350874277184</v>
+        <v>0.02902899226399437</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4064276818.595471</v>
+        <v>4528349353.957541</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1475236323962913</v>
+        <v>0.1148996562216648</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0231469233408317</v>
+        <v>0.02602849217250517</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>223</v>
+      </c>
+      <c r="J97" t="n">
+        <v>425</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39.33026951291082</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3862459650.483269</v>
+        <v>3950361093.902084</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09692985581954809</v>
+        <v>0.1024997245969126</v>
       </c>
       <c r="G98" t="n">
-        <v>0.023774850773027</v>
+        <v>0.02228106272073406</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2959701431.106554</v>
+        <v>2849112970.309196</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09997160019207234</v>
+        <v>0.1160195125663456</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02890459730689223</v>
+        <v>0.02799612330872022</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3712474886.724973</v>
+        <v>3747542692.372556</v>
       </c>
       <c r="F100" t="n">
-        <v>0.142083627419835</v>
+        <v>0.1362211147049005</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02181958974156873</v>
+        <v>0.01782063549995275</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>199</v>
+      </c>
+      <c r="J100" t="n">
+        <v>425</v>
+      </c>
+      <c r="K100" t="n">
+        <v>35.86550056395467</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2322380300.534666</v>
+        <v>2410436695.506541</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1660920338138972</v>
+        <v>0.2073018294115503</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04007797173739145</v>
+        <v>0.05437912712605335</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
